--- a/db_spesification.xlsx
+++ b/db_spesification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t xml:space="preserve">Applikasi Flower Shop</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">reset_for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big_icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small_icon</t>
   </si>
 </sst>
 </file>
@@ -294,12 +288,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -363,6 +363,20 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -402,47 +416,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,32 +468,28 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -535,7 +549,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -559,15 +573,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>763560</xdr:colOff>
+      <xdr:colOff>762840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -576,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9975960" y="1944000"/>
-          <a:ext cx="727200" cy="1005480"/>
+          <a:off x="9984240" y="1944360"/>
+          <a:ext cx="726840" cy="1005120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -589,6 +603,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -616,7 +631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -627,8 +642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939600" y="3134880"/>
-          <a:ext cx="828360" cy="360"/>
+          <a:off x="9948600" y="3134880"/>
+          <a:ext cx="829080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -651,6 +666,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -680,7 +696,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1070280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -689,8 +705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8439120" y="3228120"/>
-          <a:ext cx="360" cy="495000"/>
+          <a:off x="8445960" y="3228480"/>
+          <a:ext cx="360" cy="494640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -713,6 +729,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -734,13 +751,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-720</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10440</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
@@ -751,8 +768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6552720" y="4399200"/>
-          <a:ext cx="828000" cy="360"/>
+          <a:off x="6557400" y="4399200"/>
+          <a:ext cx="829080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -775,6 +792,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -804,7 +822,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1187640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -813,8 +831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11943720" y="3227760"/>
-          <a:ext cx="360" cy="500040"/>
+          <a:off x="11953800" y="3228120"/>
+          <a:ext cx="360" cy="499680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -837,6 +855,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -860,13 +879,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1164240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1164600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -875,8 +894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11920680" y="5298120"/>
-          <a:ext cx="360" cy="768960"/>
+          <a:off x="11930760" y="5297400"/>
+          <a:ext cx="360" cy="768600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -899,6 +918,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -926,9 +946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:colOff>774720</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -937,8 +957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9898200" y="6172200"/>
-          <a:ext cx="816120" cy="996840"/>
+          <a:off x="9906120" y="6172560"/>
+          <a:ext cx="817200" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -950,6 +970,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -977,7 +998,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
+      <xdr:colOff>763560</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -988,8 +1009,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13451040" y="6763680"/>
-          <a:ext cx="851040" cy="360"/>
+          <a:off x="13461840" y="6763680"/>
+          <a:ext cx="850680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1012,6 +1033,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1035,13 +1057,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>975600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1050,8 +1072,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17144640" y="6208200"/>
-          <a:ext cx="837360" cy="733680"/>
+          <a:off x="17156520" y="6207840"/>
+          <a:ext cx="836640" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1063,6 +1085,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1086,13 +1109,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>10800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1101,8 +1124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13548960" y="4052880"/>
-          <a:ext cx="816120" cy="921600"/>
+          <a:off x="13559760" y="4052160"/>
+          <a:ext cx="817200" cy="921240"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1114,6 +1137,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1134,16 +1158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>-1080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>816480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1152,8 +1176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6551280" y="1386720"/>
-          <a:ext cx="776520" cy="2821680"/>
+          <a:off x="6557040" y="1386000"/>
+          <a:ext cx="776160" cy="2821320"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1165,6 +1189,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1186,13 +1211,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
+      <xdr:colOff>763200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>774360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
@@ -1203,8 +1228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3526200" y="1789200"/>
-          <a:ext cx="828000" cy="360"/>
+          <a:off x="3527280" y="1789200"/>
+          <a:ext cx="829080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1227,6 +1252,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1250,13 +1276,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1265,8 +1291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1921680" y="2488320"/>
-          <a:ext cx="360" cy="1229040"/>
+          <a:off x="1923120" y="2487600"/>
+          <a:ext cx="360" cy="1228680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1289,6 +1315,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1318,7 +1345,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1094040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1327,8 +1354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1910160" y="4716360"/>
-          <a:ext cx="360" cy="580680"/>
+          <a:off x="1911600" y="4716720"/>
+          <a:ext cx="360" cy="580320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1351,6 +1378,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1374,13 +1402,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>975960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>976320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1389,8 +1417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5371560" y="4505040"/>
-          <a:ext cx="360" cy="768960"/>
+          <a:off x="5375880" y="4504320"/>
+          <a:ext cx="360" cy="768600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1413,6 +1441,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1436,13 +1465,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>964080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>964440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>199440</xdr:rowOff>
+      <xdr:rowOff>198720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1451,8 +1480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5359680" y="6079320"/>
-          <a:ext cx="360" cy="578160"/>
+          <a:off x="5364000" y="6078600"/>
+          <a:ext cx="360" cy="577800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1475,6 +1504,7 @@
           <a:solidFill>
             <a:srgbClr val="7030a0"/>
           </a:solidFill>
+          <a:round/>
           <a:headEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1503,19 +1533,19 @@
   </sheetPr>
   <dimension ref="A3:R44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.57"/>
   </cols>
   <sheetData>
@@ -1760,10 +1790,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="13"/>
       <c r="N22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1834,13 +1864,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -1884,7 +1914,7 @@
       <c r="L26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="O26" s="10" t="s">
@@ -1898,7 +1928,7 @@
       <c r="I27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="16" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -1912,7 +1942,7 @@
       <c r="I28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>47</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -1926,7 +1956,7 @@
       <c r="I29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="17" t="s">
         <v>50</v>
       </c>
       <c r="L29" s="11" t="s">
@@ -2054,14 +2084,14 @@
       <c r="O36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="15" t="s">
         <v>10</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2082,14 +2112,14 @@
       <c r="L37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="16" t="s">
         <v>50</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2132,7 @@
       <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="18" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -2114,14 +2144,14 @@
       <c r="L38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="17" t="s">
         <v>68</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
         <v>69</v>
       </c>
@@ -2134,14 +2164,14 @@
       <c r="F39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
@@ -2155,41 +2185,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="21"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>

--- a/db_spesification.xlsx
+++ b/db_spesification.xlsx
@@ -403,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,10 +454,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -575,13 +571,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>36000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -590,8 +586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9984240" y="1944360"/>
-          <a:ext cx="726840" cy="1005120"/>
+          <a:off x="9992880" y="1943640"/>
+          <a:ext cx="726480" cy="1004760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -631,7 +627,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -642,8 +638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9948600" y="3134880"/>
-          <a:ext cx="829080" cy="360"/>
+          <a:off x="9956880" y="3134880"/>
+          <a:ext cx="829800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -690,13 +686,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>1069920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1070280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -705,8 +701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8445960" y="3228480"/>
-          <a:ext cx="360" cy="494640"/>
+          <a:off x="8452440" y="3227760"/>
+          <a:ext cx="360" cy="494280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -750,14 +746,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>-720</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>817920</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
@@ -768,8 +764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6557400" y="4399200"/>
-          <a:ext cx="829080" cy="360"/>
+          <a:off x="6562080" y="4399200"/>
+          <a:ext cx="829800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -815,14 +811,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1187280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>198720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1187640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -831,8 +827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11953800" y="3228120"/>
-          <a:ext cx="360" cy="499680"/>
+          <a:off x="11963160" y="3227400"/>
+          <a:ext cx="360" cy="499320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -885,7 +881,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1164600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>199080</xdr:rowOff>
+      <xdr:rowOff>198720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -894,8 +890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11930760" y="5297400"/>
-          <a:ext cx="360" cy="768600"/>
+          <a:off x="11940120" y="5297760"/>
+          <a:ext cx="360" cy="768240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -940,15 +936,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:colOff>774000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -957,8 +953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9906120" y="6172560"/>
-          <a:ext cx="817200" cy="969840"/>
+          <a:off x="9912240" y="6171840"/>
+          <a:ext cx="818280" cy="969480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -998,7 +994,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>763560</xdr:colOff>
+      <xdr:colOff>763200</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -1009,8 +1005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13461840" y="6763680"/>
-          <a:ext cx="850680" cy="360"/>
+          <a:off x="13471920" y="6763680"/>
+          <a:ext cx="850320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1057,13 +1053,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>975600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:colOff>774720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1072,8 +1068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17156520" y="6207840"/>
-          <a:ext cx="836640" cy="720000"/>
+          <a:off x="17168040" y="6207120"/>
+          <a:ext cx="835560" cy="719640"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1113,9 +1109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1124,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13559760" y="4052160"/>
-          <a:ext cx="817200" cy="921240"/>
+          <a:off x="13569840" y="4052520"/>
+          <a:ext cx="818280" cy="920880"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1165,9 +1161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:colOff>774720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1176,8 +1172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6557040" y="1386000"/>
-          <a:ext cx="776160" cy="2821320"/>
+          <a:off x="6560640" y="1386360"/>
+          <a:ext cx="777600" cy="2820960"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1211,13 +1207,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>774360</xdr:colOff>
+      <xdr:colOff>773280</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
@@ -1228,8 +1224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3527280" y="1789200"/>
-          <a:ext cx="829080" cy="360"/>
+          <a:off x="3528000" y="1789200"/>
+          <a:ext cx="829800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1282,7 +1278,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1291,8 +1287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1923120" y="2487600"/>
-          <a:ext cx="360" cy="1228680"/>
+          <a:off x="1924200" y="2487960"/>
+          <a:ext cx="360" cy="1228320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1339,13 +1335,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1093680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1094040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1354,8 +1350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1911600" y="4716720"/>
-          <a:ext cx="360" cy="580320"/>
+          <a:off x="1912680" y="4716000"/>
+          <a:ext cx="360" cy="579960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1408,7 +1404,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>976320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1417,8 +1413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5375880" y="4504320"/>
-          <a:ext cx="360" cy="768600"/>
+          <a:off x="5379840" y="4504680"/>
+          <a:ext cx="360" cy="768240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1471,7 +1467,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>964440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>198720</xdr:rowOff>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1480,8 +1476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5364000" y="6078600"/>
-          <a:ext cx="360" cy="577800"/>
+          <a:off x="5367960" y="6078960"/>
+          <a:ext cx="360" cy="577440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1534,15 +1530,15 @@
   <dimension ref="A3:R44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.69"/>
@@ -1790,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="3"/>
       <c r="N22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1864,13 +1860,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -1914,7 +1910,7 @@
       <c r="L26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="O26" s="10" t="s">
@@ -1928,7 +1924,7 @@
       <c r="I27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -1942,7 +1938,7 @@
       <c r="I28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>47</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -1956,7 +1952,7 @@
       <c r="I29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="16" t="s">
         <v>50</v>
       </c>
       <c r="L29" s="11" t="s">
@@ -2084,7 +2080,7 @@
       <c r="O36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="14" t="s">
         <v>10</v>
       </c>
       <c r="R36" s="10" t="s">
@@ -2112,7 +2108,7 @@
       <c r="L37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="15" t="s">
         <v>50</v>
       </c>
       <c r="O37" s="5" t="s">
@@ -2132,7 +2128,7 @@
       <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -2144,7 +2140,7 @@
       <c r="L38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O38" s="11" t="s">
@@ -2164,7 +2160,7 @@
       <c r="F39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="16" t="s">
         <v>70</v>
       </c>
       <c r="L39" s="11" t="s">
@@ -2192,24 +2188,24 @@
       <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
